--- a/src/excel_template/cdQC_trend/CD mean Trend.xlsx
+++ b/src/excel_template/cdQC_trend/CD mean Trend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="450" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="5640" yWindow="450" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
@@ -515,6 +515,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_ " sourceLinked="0"/>
@@ -881,6 +882,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_ " sourceLinked="0"/>
@@ -1247,6 +1249,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_ " sourceLinked="0"/>
@@ -1613,6 +1616,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_ " sourceLinked="0"/>
@@ -1705,6 +1709,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1850,6 +1855,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
@@ -2358,7 +2364,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -5920,9 +5926,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -5937,9 +5941,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
